--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_standard_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_standard_KK01.xlsx
@@ -1021,47 +1021,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1727200</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8199" name="Object 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8199"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1270,6 +1229,47 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>44450</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1454150</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>6350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8200"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1627,8 +1627,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1907,27 +1907,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8199">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
+        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="2">
+          <objectPr defaultSize="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
+                <xdr:colOff>44450</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1727200</xdr:colOff>
+                <xdr:colOff>1454150</xdr:colOff>
                 <xdr:row>29</xdr:row>
-                <xdr:rowOff>196850</xdr:rowOff>
+                <xdr:rowOff>6350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8199"/>
+        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8200"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_standard_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_standard_KK01.xlsx
@@ -146,12 +146,6 @@
     <t>ISO%</t>
   </si>
   <si>
-    <t>X (A-&gt;P)</t>
-  </si>
-  <si>
-    <t>Y(M-&gt;L)</t>
-  </si>
-  <si>
     <t>_____</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
   </si>
   <si>
     <t>Z (mm, from skull plane)</t>
-  </si>
-  <si>
-    <t>Z (D-&gt;V, from skull plane)</t>
   </si>
   <si>
     <t>Animal ID:</t>
@@ -225,15 +216,6 @@
     </r>
   </si>
   <si>
-    <t>(Lambda_Y)+(0.1*adjust_ratio) = _____</t>
-  </si>
-  <si>
-    <t>(Bregma_Y)-(0.15*adjust_ratio) = _____</t>
-  </si>
-  <si>
-    <t>(Bregma_Y)+(0.15*adjust_ratio) = _____</t>
-  </si>
-  <si>
     <t>R-M1/EEG3</t>
   </si>
   <si>
@@ -252,9 +234,6 @@
     <t>R-PC/EEG1</t>
   </si>
   <si>
-    <t>(Lambda_Y)-(0.1*adjust_ratio) = _____</t>
-  </si>
-  <si>
     <t>COMM, GND, R-PC, L-M1, R-M1</t>
   </si>
   <si>
@@ -262,6 +241,27 @@
   </si>
   <si>
     <t>GND, L-M1/EEG2, R-M1/EEG3, R-PC/EEG1</t>
+  </si>
+  <si>
+    <t>(Lambda_Y)+(1.0*adjust_ratio) = _____</t>
+  </si>
+  <si>
+    <t>(Bregma_Y)+(1.5*adjust_ratio) = _____</t>
+  </si>
+  <si>
+    <t>(Bregma_Y)-(1.5*adjust_ratio) = _____</t>
+  </si>
+  <si>
+    <t>(Lambda_Y)-(1.0*adjust_ratio) = _____</t>
+  </si>
+  <si>
+    <t>X (A-&gt;P) 0.X sigfig</t>
+  </si>
+  <si>
+    <t>Y(M-&gt;L) 0.X sigfig</t>
+  </si>
+  <si>
+    <t>Z (D-&gt;V, from skull plane) 0.X sigfig</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -551,6 +551,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,15 +1027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:colOff>1765300</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:colOff>1060450</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1043,7 +1046,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5480050" y="3689350"/>
+          <a:off x="4921250" y="3892550"/>
           <a:ext cx="1631950" cy="1473200"/>
           <a:chOff x="1389436" y="4869418"/>
           <a:chExt cx="1715770" cy="1474232"/>
@@ -1270,6 +1273,319 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2159000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2495550" cy="355162"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5314950" y="5621337"/>
+              <a:ext cx="2495550" cy="355162"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Adjust</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> ratio </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑀𝑒𝑎𝑠𝑢𝑟𝑒𝑑</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑅𝑒𝑓𝑒𝑟𝑒𝑛𝑐𝑒</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5314950" y="5621337"/>
+              <a:ext cx="2495550" cy="355162"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Adjust</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> ratio </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑀𝑒𝑎𝑠𝑢𝑟𝑒𝑑 𝑋 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐵−𝐿)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑅𝑒𝑓𝑒𝑟𝑒𝑛𝑐𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑋 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−𝐿)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1288,9 +1604,9 @@
   <autoFilter ref="A4:D13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Location" dataDxfId="24"/>
-    <tableColumn id="2" name="X (A-&gt;P)" dataDxfId="23"/>
-    <tableColumn id="3" name="Y(M-&gt;L)" dataDxfId="22"/>
-    <tableColumn id="4" name="Z (D-&gt;V, from skull plane)" dataDxfId="21"/>
+    <tableColumn id="2" name="X (A-&gt;P) 0.X sigfig" dataDxfId="23"/>
+    <tableColumn id="3" name="Y(M-&gt;L) 0.X sigfig" dataDxfId="22"/>
+    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X sigfig" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1627,8 +1943,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1953,7 @@
     <col min="2" max="2" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
@@ -1647,41 +1963,41 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1689,13 +2005,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -1715,13 +2031,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>9</v>
@@ -1761,27 +2077,27 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>10</v>
@@ -1798,16 +2114,16 @@
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" s="14">
         <v>30</v>
@@ -1824,16 +2140,16 @@
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1841,19 +2157,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1861,7 +2177,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13" s="14">
         <v>0.1</v>
@@ -1873,29 +2189,29 @@
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="G15" s="20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F16" s="20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F17" s="20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="6:7" ht="12.5" x14ac:dyDescent="0.25"/>

--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_standard_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_standard_KK01.xlsx
@@ -1281,8 +1281,8 @@
       <xdr:rowOff>204787</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2495550" cy="355162"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -1399,7 +1399,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1411,7 +1411,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1423,7 +1423,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1435,7 +1435,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1474,7 +1474,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -1943,7 +1943,7 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>

--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_standard_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_standard_KK01.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>M1</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Z (mm, from skull plane)</t>
-  </si>
-  <si>
-    <t>Animal ID:</t>
   </si>
   <si>
     <t>CCMS Cage#</t>
@@ -255,13 +252,34 @@
     <t>(Lambda_Y)-(1.0*adjust_ratio) = _____</t>
   </si>
   <si>
-    <t>X (A-&gt;P) 0.X sigfig</t>
-  </si>
-  <si>
-    <t>Y(M-&gt;L) 0.X sigfig</t>
-  </si>
-  <si>
-    <t>Z (D-&gt;V, from skull plane) 0.X sigfig</t>
+    <t>Acceptance:</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>0.1mm</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>X (A-&gt;P) 0.X mm sigfig</t>
+  </si>
+  <si>
+    <t>Y(M-&gt;L) 0.X mm sigfig</t>
+  </si>
+  <si>
+    <t>Z (D-&gt;V, from skull plane) 0.X mm sigfig</t>
+  </si>
+  <si>
+    <t>Ear Tag #</t>
+  </si>
+  <si>
+    <t>Implant ID:</t>
   </si>
 </sst>
 </file>
@@ -1604,9 +1622,9 @@
   <autoFilter ref="A4:D13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Location" dataDxfId="24"/>
-    <tableColumn id="2" name="X (A-&gt;P) 0.X sigfig" dataDxfId="23"/>
-    <tableColumn id="3" name="Y(M-&gt;L) 0.X sigfig" dataDxfId="22"/>
-    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X sigfig" dataDxfId="21"/>
+    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="23"/>
+    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="22"/>
+    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1941,10 +1959,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1963,15 +1981,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1979,13 +2000,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>8</v>
@@ -2080,7 +2101,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -2088,7 +2109,7 @@
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -2114,7 +2135,7 @@
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
@@ -2140,13 +2161,13 @@
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
@@ -2160,16 +2181,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2189,32 +2210,60 @@
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="6:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F17" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>37</v>
+    <row r="25" spans="4:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="25" spans="6:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
